--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="喜欢的电影列表信息" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="喜欢的音乐列表" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>喜欢的电影列表信息</t>
   </si>
@@ -33,9 +33,6 @@
     <t>导演</t>
   </si>
   <si>
-    <t>主演</t>
-  </si>
-  <si>
     <t>链接</t>
   </si>
   <si>
@@ -46,9 +43,6 @@
   </si>
   <si>
     <t>吴炜伦</t>
-  </si>
-  <si>
-    <t>黄子华 / 谢君豪 / 王丹妮 / 廖子妤 / 王敏德 / 何启华 / 杨偲泳 / 栢天男 / 林保怡 / 谷德昭 / 罗孝勇 / 莫然 / 徐浩昌 / 洪林小湛 / 韩毓霞 / 麦子云 / 甄懋强 / 陈郁宪 / 周志辉 / 麦振江</t>
   </si>
   <si>
     <t>https://movie.douban.com/subject/35914259</t>
@@ -64,9 +58,6 @@
     <t>杜琪峰</t>
   </si>
   <si>
-    <t>刘德华 / 刘青云 / 蒙嘉慧 / 李子雄 / 许绍雄 / 林雪 / 黄卓玲 / 艾威 / 林伟健 / Robert Sparks / 洪伟良 / 罗靖庭 / 邱万城 / Paco Yick / South Kei Lee / 张浚鸿 / 李子明 / 李寿祺</t>
-  </si>
-  <si>
     <t>https://movie.douban.com/subject/1298898/</t>
   </si>
   <si>
@@ -79,10 +70,52 @@
     <t>李力持 / 周星驰</t>
   </si>
   <si>
-    <t>周星驰 / 莫文蔚 / 刘以达 / 吴孟达 / 薛家燕 / 谷德昭 / 李兆基 / 江希文 / 田启文 / 欧锦棠 / 罗家英 / 钟丽缇 / 林雪</t>
-  </si>
-  <si>
     <t>https://movie.douban.com/subject/1293351/</t>
+  </si>
+  <si>
+    <t>喜欢的书籍列表信息</t>
+  </si>
+  <si>
+    <t>书籍名称</t>
+  </si>
+  <si>
+    <t>作者</t>
+  </si>
+  <si>
+    <t>活着</t>
+  </si>
+  <si>
+    <t>讲述了农村人福贵悲惨的人生遭遇。福贵本是个阔少爷，可他嗜赌如命，终于赌光了家业，一贫如洗。他的父亲被他活活气死，母亲则在穷困中患了重病，福贵前去求药，却在途中被国民党抓去当壮丁。经过几番波折回到家里，才知道母亲早已去世，妻子家珍含辛茹苦地养大两个儿女。此后更加悲惨的命运一次又一次降临到福贵身上，他的妻子、儿女和孙子相继死去，最后只剩福贵和一头老牛相依为命，但老人依旧活着，仿佛比往日更加洒脱与坚强。</t>
+  </si>
+  <si>
+    <t>余华</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/4913064/</t>
+  </si>
+  <si>
+    <t>长安的荔枝</t>
+  </si>
+  <si>
+    <t>大唐天宝十四年，长安城的小吏李善德突然接到一个任务：要在贵妃诞日之前，从岭南运来新鲜荔枝。荔枝“一日色变，两日香变，三日味变”，而岭南距长安五千余里，山水迢迢，这是个不可能完成的任务，可为了家人，李善德决心放手一搏：“就算失败，我也想知道，自己倒在距离终点多远的地方。”</t>
+  </si>
+  <si>
+    <t>马伯庸</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/36104107/</t>
+  </si>
+  <si>
+    <t>霸王别姬</t>
+  </si>
+  <si>
+    <t>《霸王别姬》以梨园师兄弟程蝶衣和段小楼的人生经历和情感纠葛为线索，讲述了一段哀艳悲烈的往事。文学虚构与国粹经典、个体命运与时代变迁巧妙融合，曲折动人，华美诗意，读来极具张力，发人深省。</t>
+  </si>
+  <si>
+    <t>李碧华</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/25737043/</t>
   </si>
 </sst>
 </file>
@@ -95,7 +128,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -111,7 +144,18 @@
     <font>
       <sz val="18"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="0"/>
       <name val="Noto Sans CJK"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -601,152 +645,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -756,13 +800,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1094,347 +1147,305 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:G34"/>
+  <dimension ref="B1:F34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="0.666666666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.8333333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.6666666666667" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.6666666666667" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.3333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.3333333333333" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.16666666666667" style="1"/>
+    <col min="6" max="6" width="25.7833333333333" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.16666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="2:7">
+    <row r="1" ht="30" customHeight="1" spans="2:6">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" ht="33" customHeight="1" spans="2:7">
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" ht="32" customHeight="1" spans="2:7">
-      <c r="B3" s="4" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" ht="33" customHeight="1" spans="2:6">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" ht="32" customHeight="1" spans="2:6">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4" t="s">
+    </row>
+    <row r="4" ht="32" customHeight="1" spans="2:6">
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" ht="32" customHeight="1" spans="2:7">
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="5" t="s">
+    </row>
+    <row r="5" ht="32" customHeight="1" spans="2:6">
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" ht="32" customHeight="1" spans="2:7">
-      <c r="B5" s="5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="E5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="F5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="5" t="s">
+    </row>
+    <row r="6" ht="32" customHeight="1" spans="2:6">
+      <c r="B6" s="7">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="E6" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" ht="32" customHeight="1" spans="2:7">
-      <c r="B6" s="5">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="F6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" ht="32" customHeight="1" spans="2:7">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" ht="32" customHeight="1" spans="2:7">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" ht="32" customHeight="1" spans="2:7">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" ht="32" customHeight="1" spans="2:7">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" ht="32" customHeight="1" spans="2:7">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" ht="32" customHeight="1" spans="2:7">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" ht="32" customHeight="1" spans="2:7">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" ht="32" customHeight="1" spans="2:7">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" ht="32" customHeight="1" spans="2:7">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" ht="32" customHeight="1" spans="2:7">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" ht="32" customHeight="1" spans="2:7">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" ht="32" customHeight="1" spans="2:7">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" ht="32" customHeight="1" spans="2:7">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" ht="32" customHeight="1" spans="2:7">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" ht="32" customHeight="1" spans="2:7">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" ht="32" customHeight="1" spans="2:7">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" ht="32" customHeight="1" spans="2:7">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" ht="32" customHeight="1" spans="2:7">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" ht="32" customHeight="1" spans="2:7">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" ht="32" customHeight="1" spans="2:7">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" ht="32" customHeight="1" spans="2:7">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" ht="32" customHeight="1" spans="2:7">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" ht="32" customHeight="1" spans="2:7">
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" ht="32" customHeight="1" spans="2:7">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" ht="32" customHeight="1" spans="2:7">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" ht="32" customHeight="1" spans="2:7">
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" ht="32" customHeight="1" spans="2:7">
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
+    </row>
+    <row r="7" ht="32" customHeight="1" spans="2:6">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" ht="32" customHeight="1" spans="2:6">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" ht="32" customHeight="1" spans="2:6">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" ht="32" customHeight="1" spans="2:6">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" ht="32" customHeight="1" spans="2:6">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" ht="32" customHeight="1" spans="2:6">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" ht="32" customHeight="1" spans="2:6">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" ht="32" customHeight="1" spans="2:6">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" ht="32" customHeight="1" spans="2:6">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" ht="32" customHeight="1" spans="2:6">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" ht="32" customHeight="1" spans="2:6">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" ht="32" customHeight="1" spans="2:6">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" ht="32" customHeight="1" spans="2:6">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" ht="32" customHeight="1" spans="2:6">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" ht="32" customHeight="1" spans="2:6">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" ht="32" customHeight="1" spans="2:6">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" ht="32" customHeight="1" spans="2:6">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" ht="32" customHeight="1" spans="2:6">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" ht="32" customHeight="1" spans="2:6">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" ht="32" customHeight="1" spans="2:6">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" ht="32" customHeight="1" spans="2:6">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" ht="32" customHeight="1" spans="2:6">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" ht="32" customHeight="1" spans="2:6">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" ht="32" customHeight="1" spans="2:6">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" ht="32" customHeight="1" spans="2:6">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" ht="32" customHeight="1" spans="2:6">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" ht="32" customHeight="1" spans="2:6">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" ht="50" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:G2"/>
+    <mergeCell ref="B1:F2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" display="https://movie.douban.com/subject/35914259" tooltip="https://movie.douban.com/subject/35914259"/>
-    <hyperlink ref="G5" r:id="rId2" display="https://movie.douban.com/subject/1298898/" tooltip="https://movie.douban.com/subject/1298898/"/>
-    <hyperlink ref="G6" r:id="rId3" display="https://movie.douban.com/subject/1293351/"/>
+    <hyperlink ref="F4" r:id="rId1" display="https://movie.douban.com/subject/35914259" tooltip="https://movie.douban.com/subject/35914259"/>
+    <hyperlink ref="F5" r:id="rId2" display="https://movie.douban.com/subject/1298898/" tooltip="https://movie.douban.com/subject/1298898/"/>
+    <hyperlink ref="F6" r:id="rId3" display="https://movie.douban.com/subject/1293351/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1444,14 +1455,313 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="15" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="0.666666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.8333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6666666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.3333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7833333333333" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.16666666666667" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="30" customHeight="1" spans="2:6">
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="33" customHeight="1" spans="2:6">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="32" customHeight="1" spans="2:6">
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="32" customHeight="1" spans="2:6">
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="32" customHeight="1" spans="2:6">
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="32" customHeight="1" spans="2:6">
+      <c r="B6" s="7">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="32" customHeight="1" spans="2:6">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="32" customHeight="1" spans="2:6">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="32" customHeight="1" spans="2:6">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="32" customHeight="1" spans="2:6">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="32" customHeight="1" spans="2:6">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="32" customHeight="1" spans="2:6">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="32" customHeight="1" spans="2:6">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="32" customHeight="1" spans="2:6">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="32" customHeight="1" spans="2:6">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="32" customHeight="1" spans="2:6">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="32" customHeight="1" spans="2:6">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="32" customHeight="1" spans="2:6">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="32" customHeight="1" spans="2:6">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="32" customHeight="1" spans="2:6">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="32" customHeight="1" spans="2:6">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="32" customHeight="1" spans="2:6">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="32" customHeight="1" spans="2:6">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="32" customHeight="1" spans="2:6">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="32" customHeight="1" spans="2:6">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="32" customHeight="1" spans="2:6">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="32" customHeight="1" spans="2:6">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="32" customHeight="1" spans="2:6">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="32" customHeight="1" spans="2:6">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="32" customHeight="1" spans="2:6">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="32" customHeight="1" spans="2:6">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="32" customHeight="1" spans="2:6">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="32" customHeight="1" spans="2:6">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="32" customHeight="1" spans="2:6">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="50" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F5" r:id="rId1" display="https://book.douban.com/subject/36104107/" tooltip="https://book.douban.com/subject/36104107/"/>
+    <hyperlink ref="F6" r:id="rId2" display="https://book.douban.com/subject/25737043/" tooltip="https://book.douban.com/subject/25737043/"/>
+    <hyperlink ref="F4" r:id="rId3" display="https://book.douban.com/subject/4913064/" tooltip="https://book.douban.com/subject/4913064/"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -1149,8 +1149,8 @@
   <sheetPr/>
   <dimension ref="B1:F34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1458,7 +1458,7 @@
   <dimension ref="B1:F35"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="15" outlineLevelCol="5"/>

--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limingcan/project/ejc-cli/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3695F839-BD31-5843-8D2F-7DFBCC796CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BBBA99-D3A9-0743-A566-295CA2BED6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="喜欢的电影列表信息" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>喜欢的电影列表信息</t>
   </si>
@@ -122,13 +122,17 @@
   </si>
   <si>
     <t>https://book.douban.com/subject/25737043/</t>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -172,12 +176,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="0"/>
-      <name val="Noto Sans CJK"/>
     </font>
   </fonts>
   <fills count="4">
@@ -241,7 +239,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -257,10 +255,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -549,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F34"/>
+  <dimension ref="B1:I33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showGridLines="0" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
@@ -566,154 +561,157 @@
     <col min="7" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="30" customHeight="1">
+    <row r="1" spans="2:9" ht="79" customHeight="1">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="2:6" ht="33" customHeight="1">
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="2:6" ht="32" customHeight="1">
-      <c r="B3" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="2:9" ht="32" customHeight="1">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="32" customHeight="1">
+    <row r="3" spans="2:9" ht="32" customHeight="1">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="32" customHeight="1">
       <c r="B4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="32" customHeight="1">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="32" customHeight="1">
       <c r="B5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="32" customHeight="1">
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="32" customHeight="1">
+    <row r="6" spans="2:9" ht="32" customHeight="1">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="2:9" ht="32" customHeight="1">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="2:6" ht="32" customHeight="1">
+    <row r="8" spans="2:9" ht="32" customHeight="1">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="2:6" ht="32" customHeight="1">
+    <row r="9" spans="2:9" ht="32" customHeight="1">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="2:6" ht="32" customHeight="1">
+    <row r="10" spans="2:9" ht="32" customHeight="1">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="2:6" ht="32" customHeight="1">
+    <row r="11" spans="2:9" ht="32" customHeight="1">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="2:6" ht="32" customHeight="1">
+    <row r="12" spans="2:9" ht="32" customHeight="1">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="2:6" ht="32" customHeight="1">
+    <row r="13" spans="2:9" ht="32" customHeight="1">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="2:6" ht="32" customHeight="1">
+    <row r="14" spans="2:9" ht="32" customHeight="1">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="2:6" ht="32" customHeight="1">
+    <row r="15" spans="2:9" ht="32" customHeight="1">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="2:6" ht="32" customHeight="1">
+    <row r="16" spans="2:9" ht="32" customHeight="1">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -832,23 +830,16 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="2:6" ht="32" customHeight="1">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="2:6" ht="50" customHeight="1"/>
+    <row r="33" ht="50" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" tooltip="https://movie.douban.com/subject/35914259" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F5" r:id="rId2" tooltip="https://movie.douban.com/subject/1298898/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F3" r:id="rId1" tooltip="https://movie.douban.com/subject/35914259" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F4" r:id="rId2" tooltip="https://movie.douban.com/subject/1298898/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
@@ -856,10 +847,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:F35"/>
+  <dimension ref="B1:F34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
@@ -873,8 +864,8 @@
     <col min="7" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="30" customHeight="1">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="2:6" ht="85" customHeight="1">
+      <c r="B1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C1" s="5"/>
@@ -882,80 +873,80 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="2:6" ht="33" customHeight="1">
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+    <row r="2" spans="2:6" ht="32" customHeight="1">
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="2:6" ht="32" customHeight="1">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>5</v>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="32" customHeight="1">
       <c r="B4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="32" customHeight="1">
       <c r="B5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="32" customHeight="1">
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="2:6" ht="32" customHeight="1">
       <c r="B7" s="2"/>
@@ -1146,23 +1137,16 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="2:6" ht="32" customHeight="1">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="2:6" ht="50" customHeight="1"/>
+    <row r="34" spans="2:6" ht="50" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1" tooltip="https://book.douban.com/subject/36104107/" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="F6" r:id="rId2" tooltip="https://book.douban.com/subject/25737043/" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="F4" r:id="rId3" tooltip="https://book.douban.com/subject/4913064/" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="F4" r:id="rId1" tooltip="https://book.douban.com/subject/36104107/" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="F5" r:id="rId2" tooltip="https://book.douban.com/subject/25737043/" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="F3" r:id="rId3" tooltip="https://book.douban.com/subject/4913064/" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limingcan/project/ejc-cli/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BBBA99-D3A9-0743-A566-295CA2BED6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F245649-6833-9F40-AA2A-B5902083AA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="喜欢的电影列表信息" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>喜欢的电影列表信息</t>
   </si>
@@ -45,9 +45,6 @@
     <t>毒舌大狀</t>
   </si>
   <si>
-    <t>一宗国际名模涉嫌虐待女儿的冤案，竟成了法律界、权贵与名媛之间的角力场！社会金字塔顶层的钟氏家族，如何用尽权力与资源去自保？以林凉水（黄子华 饰）为代表的律师们又如何在重重困难下伸张正义？</t>
-  </si>
-  <si>
     <t>吴炜伦</t>
   </si>
   <si>
@@ -57,16 +54,9 @@
     <t>暗战</t>
   </si>
   <si>
-    <t>大盗张彼德（刘德华）得知生命只剩四周时，决定为死于黑道老大（李子雄）之手的父亲报仇，为此他精心设计打劫了黑道老大的运输公司隔壁的财务公司，并挟持人质引来因得罪上级被转调文职的高级谈判专家何尚生（刘青云）。
-　　何尚生在同张彼德展开追逐时，虽屡战屡败，却渐了解到黑帮老大实则借 助运输公司做非法走私珠宝的生意，于是同张彼德化敌为友，携手同黑帮势力展开了斗智斗勇的游戏。而张彼德在逃避何尚生追逐的过程中无意结识女孩梁婉婷（蒙嘉慧）后，在生命的尽头获得一份浪漫奇缘。</t>
-  </si>
-  <si>
     <t>杜琪峰</t>
   </si>
   <si>
-    <t>https://movie.douban.com/subject/1298898/</t>
-  </si>
-  <si>
     <t>食神</t>
   </si>
   <si>
@@ -79,60 +69,118 @@
     <t>https://movie.douban.com/subject/1293351/</t>
   </si>
   <si>
-    <t>喜欢的书籍列表信息</t>
-  </si>
-  <si>
-    <t>书籍名称</t>
+    <t>活着</t>
+  </si>
+  <si>
+    <t>讲述了农村人福贵悲惨的人生遭遇。福贵本是个阔少爷，可他嗜赌如命，终于赌光了家业，一贫如洗。他的父亲被他活活气死，母亲则在穷困中患了重病，福贵前去求药，却在途中被国民党抓去当壮丁。经过几番波折回到家里，才知道母亲早已去世，妻子家珍含辛茹苦地养大两个儿女。此后更加悲惨的命运一次又一次降临到福贵身上，他的妻子、儿女和孙子相继死去，最后只剩福贵和一头老牛相依为命，但老人依旧活着，仿佛比往日更加洒脱与坚强。</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/4913064/</t>
+  </si>
+  <si>
+    <t>长安的荔枝</t>
+  </si>
+  <si>
+    <t>大唐天宝十四年，长安城的小吏李善德突然接到一个任务：要在贵妃诞日之前，从岭南运来新鲜荔枝。荔枝“一日色变，两日香变，三日味变”，而岭南距长安五千余里，山水迢迢，这是个不可能完成的任务，可为了家人，李善德决心放手一搏：“就算失败，我也想知道，自己倒在距离终点多远的地方。”</t>
+  </si>
+  <si>
+    <t>马伯庸</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/36104107/</t>
+  </si>
+  <si>
+    <t>霸王别姬</t>
+  </si>
+  <si>
+    <t>《霸王别姬》以梨园师兄弟程蝶衣和段小楼的人生经历和情感纠葛为线索，讲述了一段哀艳悲烈的往事。文学虚构与国粹经典、个体命运与时代变迁巧妙融合，曲折动人，华美诗意，读来极具张力，发人深省。</t>
+  </si>
+  <si>
+    <t>李碧华</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/25737043/</t>
+  </si>
+  <si>
+    <t>喜欢的小说列表信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小说名字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>作者</t>
-  </si>
-  <si>
-    <t>活着</t>
-  </si>
-  <si>
-    <t>讲述了农村人福贵悲惨的人生遭遇。福贵本是个阔少爷，可他嗜赌如命，终于赌光了家业，一贫如洗。他的父亲被他活活气死，母亲则在穷困中患了重病，福贵前去求药，却在途中被国民党抓去当壮丁。经过几番波折回到家里，才知道母亲早已去世，妻子家珍含辛茹苦地养大两个儿女。此后更加悲惨的命运一次又一次降临到福贵身上，他的妻子、儿女和孙子相继死去，最后只剩福贵和一头老牛相依为命，但老人依旧活着，仿佛比往日更加洒脱与坚强。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>余华</t>
-  </si>
-  <si>
-    <t>https://book.douban.com/subject/4913064/</t>
-  </si>
-  <si>
-    <t>长安的荔枝</t>
-  </si>
-  <si>
-    <t>大唐天宝十四年，长安城的小吏李善德突然接到一个任务：要在贵妃诞日之前，从岭南运来新鲜荔枝。荔枝“一日色变，两日香变，三日味变”，而岭南距长安五千余里，山水迢迢，这是个不可能完成的任务，可为了家人，李善德决心放手一搏：“就算失败，我也想知道，自己倒在距离终点多远的地方。”</t>
-  </si>
-  <si>
-    <t>马伯庸</t>
-  </si>
-  <si>
-    <t>https://book.douban.com/subject/36104107/</t>
-  </si>
-  <si>
-    <t>霸王别姬</t>
-  </si>
-  <si>
-    <t>《霸王别姬》以梨园师兄弟程蝶衣和段小楼的人生经历和情感纠葛为线索，讲述了一段哀艳悲烈的往事。文学虚构与国粹经典、个体命运与时代变迁巧妙融合，曲折动人，华美诗意，读来极具张力，发人深省。</t>
-  </si>
-  <si>
-    <t>李碧华</t>
-  </si>
-  <si>
-    <t>https://book.douban.com/subject/25737043/</t>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一宗国际名模涉嫌虐待女儿的冤案，竟成了法律界、权贵与名媛之间的角力场！社会金字塔顶层的钟氏家族，如何用尽权力与资源去自保？以林凉水（黄子华</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>饰）为代表的律师们又如何在重重困难下伸张正义？</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大盗张彼德（刘德华）得知生命只剩四周时，决定为死于黑道老大（李子雄）之手的父亲报仇，为此他精心设计打劫了黑道老大的运输公司隔壁的财务公司，并挟持人质引来因得罪上级被转调文职的高级谈判专家何尚生（刘青云）。何尚生在同张彼德展开追逐时，虽屡战屡败，却渐了解到黑帮老大实则借</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>助运输公司做非法走私珠宝的生意，于是同张彼德化敌为友，携手同黑帮势力展开了斗智斗勇的游戏。而张彼德在逃避何尚生追逐的过程中无意结识女孩梁婉婷（蒙嘉慧）后，在生命的尽头获得一份浪漫奇缘。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -146,24 +194,7 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -174,6 +205,40 @@
       <sz val="18"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Noto Sans CJK"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -193,8 +258,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -235,11 +299,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -249,19 +313,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -544,55 +611,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="107" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="0.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.83203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="1"/>
+    <col min="6" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="79" customHeight="1">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:5" ht="79" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="2:9" ht="32" customHeight="1">
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" ht="32" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="32" customHeight="1">
-      <c r="B3" s="2">
+    <row r="3" spans="1:5" ht="37" customHeight="1">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
@@ -600,246 +669,240 @@
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="32" customHeight="1">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" ht="32" customHeight="1">
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="32" customHeight="1">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="32" customHeight="1">
-      <c r="B5" s="2">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="32" customHeight="1">
+    </row>
+    <row r="6" spans="1:5" ht="32" customHeight="1">
+      <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="2:9" ht="32" customHeight="1">
+    </row>
+    <row r="7" spans="1:5" ht="32" customHeight="1">
+      <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="2:9" ht="32" customHeight="1">
+    </row>
+    <row r="8" spans="1:5" ht="32" customHeight="1">
+      <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="2:9" ht="32" customHeight="1">
+    </row>
+    <row r="9" spans="1:5" ht="32" customHeight="1">
+      <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="2:9" ht="32" customHeight="1">
+    </row>
+    <row r="10" spans="1:5" ht="32" customHeight="1">
+      <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="2:9" ht="32" customHeight="1">
+    </row>
+    <row r="11" spans="1:5" ht="32" customHeight="1">
+      <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="2:9" ht="32" customHeight="1">
+    </row>
+    <row r="12" spans="1:5" ht="32" customHeight="1">
+      <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="2:9" ht="32" customHeight="1">
+    </row>
+    <row r="13" spans="1:5" ht="32" customHeight="1">
+      <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="2:9" ht="32" customHeight="1">
+    </row>
+    <row r="14" spans="1:5" ht="32" customHeight="1">
+      <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="2:9" ht="32" customHeight="1">
+    </row>
+    <row r="15" spans="1:5" ht="32" customHeight="1">
+      <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="2:9" ht="32" customHeight="1">
+    </row>
+    <row r="16" spans="1:5" ht="32" customHeight="1">
+      <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" ht="32" customHeight="1">
+    </row>
+    <row r="17" spans="1:5" ht="32" customHeight="1">
+      <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="2:6" ht="32" customHeight="1">
+    </row>
+    <row r="18" spans="1:5" ht="32" customHeight="1">
+      <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="2:6" ht="32" customHeight="1">
+    </row>
+    <row r="19" spans="1:5" ht="32" customHeight="1">
+      <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="2:6" ht="32" customHeight="1">
+    </row>
+    <row r="20" spans="1:5" ht="32" customHeight="1">
+      <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="2:6" ht="32" customHeight="1">
+    </row>
+    <row r="21" spans="1:5" ht="32" customHeight="1">
+      <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="2:6" ht="32" customHeight="1">
+    </row>
+    <row r="22" spans="1:5" ht="32" customHeight="1">
+      <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="2:6" ht="32" customHeight="1">
+    </row>
+    <row r="23" spans="1:5" ht="32" customHeight="1">
+      <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="2:6" ht="32" customHeight="1">
+    </row>
+    <row r="24" spans="1:5" ht="32" customHeight="1">
+      <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="2:6" ht="32" customHeight="1">
+    </row>
+    <row r="25" spans="1:5" ht="32" customHeight="1">
+      <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="2:6" ht="32" customHeight="1">
+    </row>
+    <row r="26" spans="1:5" ht="32" customHeight="1">
+      <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="2:6" ht="32" customHeight="1">
+    </row>
+    <row r="27" spans="1:5" ht="32" customHeight="1">
+      <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="2:6" ht="32" customHeight="1">
+    </row>
+    <row r="28" spans="1:5" ht="32" customHeight="1">
+      <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="2:6" ht="32" customHeight="1">
+    </row>
+    <row r="29" spans="1:5" ht="32" customHeight="1">
+      <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="2:6" ht="32" customHeight="1">
+    </row>
+    <row r="30" spans="1:5" ht="32" customHeight="1">
+      <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="2:6" ht="32" customHeight="1">
+    </row>
+    <row r="31" spans="1:5" ht="32" customHeight="1">
+      <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="2:6" ht="32" customHeight="1">
+    </row>
+    <row r="32" spans="1:5" ht="32" customHeight="1">
+      <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
     </row>
     <row r="33" ht="50" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" tooltip="https://movie.douban.com/subject/35914259" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F4" r:id="rId2" tooltip="https://movie.douban.com/subject/1298898/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E3" r:id="rId1" tooltip="https://movie.douban.com/subject/35914259" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E4" r:id="rId3" tooltip="https://movie.douban.com/subject/35914259" xr:uid="{6CDC8124-C78C-0D45-BE3A-637A0443F745}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
@@ -847,306 +910,299 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:F34"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+    <sheetView zoomScale="106" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="0.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.83203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="1"/>
+    <col min="6" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="85" customHeight="1">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:5" ht="85" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" ht="32" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="32" customHeight="1">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="32" customHeight="1">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="2:6" ht="32" customHeight="1">
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="32" customHeight="1">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="32" customHeight="1">
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" ht="32" customHeight="1">
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="32" customHeight="1">
-      <c r="B5" s="2">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="32" customHeight="1">
+    </row>
+    <row r="6" spans="1:5" ht="32" customHeight="1">
+      <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="2:6" ht="32" customHeight="1">
+    </row>
+    <row r="7" spans="1:5" ht="32" customHeight="1">
+      <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="2:6" ht="32" customHeight="1">
+    </row>
+    <row r="8" spans="1:5" ht="32" customHeight="1">
+      <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="2:6" ht="32" customHeight="1">
+    </row>
+    <row r="9" spans="1:5" ht="32" customHeight="1">
+      <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="2:6" ht="32" customHeight="1">
+    </row>
+    <row r="10" spans="1:5" ht="32" customHeight="1">
+      <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="2:6" ht="32" customHeight="1">
+    </row>
+    <row r="11" spans="1:5" ht="32" customHeight="1">
+      <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="2:6" ht="32" customHeight="1">
+    </row>
+    <row r="12" spans="1:5" ht="32" customHeight="1">
+      <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="2:6" ht="32" customHeight="1">
+    </row>
+    <row r="13" spans="1:5" ht="32" customHeight="1">
+      <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="2:6" ht="32" customHeight="1">
+    </row>
+    <row r="14" spans="1:5" ht="32" customHeight="1">
+      <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="2:6" ht="32" customHeight="1">
+    </row>
+    <row r="15" spans="1:5" ht="32" customHeight="1">
+      <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="2:6" ht="32" customHeight="1">
+    </row>
+    <row r="16" spans="1:5" ht="32" customHeight="1">
+      <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" ht="32" customHeight="1">
+    </row>
+    <row r="17" spans="1:5" ht="32" customHeight="1">
+      <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="2:6" ht="32" customHeight="1">
+    </row>
+    <row r="18" spans="1:5" ht="32" customHeight="1">
+      <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="2:6" ht="32" customHeight="1">
+    </row>
+    <row r="19" spans="1:5" ht="32" customHeight="1">
+      <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="2:6" ht="32" customHeight="1">
+    </row>
+    <row r="20" spans="1:5" ht="32" customHeight="1">
+      <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="2:6" ht="32" customHeight="1">
+    </row>
+    <row r="21" spans="1:5" ht="32" customHeight="1">
+      <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="2:6" ht="32" customHeight="1">
+    </row>
+    <row r="22" spans="1:5" ht="32" customHeight="1">
+      <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="2:6" ht="32" customHeight="1">
+    </row>
+    <row r="23" spans="1:5" ht="32" customHeight="1">
+      <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="2:6" ht="32" customHeight="1">
+    </row>
+    <row r="24" spans="1:5" ht="32" customHeight="1">
+      <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="2:6" ht="32" customHeight="1">
+    </row>
+    <row r="25" spans="1:5" ht="32" customHeight="1">
+      <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="2:6" ht="32" customHeight="1">
+    </row>
+    <row r="26" spans="1:5" ht="32" customHeight="1">
+      <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="2:6" ht="32" customHeight="1">
+    </row>
+    <row r="27" spans="1:5" ht="32" customHeight="1">
+      <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="2:6" ht="32" customHeight="1">
+    </row>
+    <row r="28" spans="1:5" ht="32" customHeight="1">
+      <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="2:6" ht="32" customHeight="1">
+    </row>
+    <row r="29" spans="1:5" ht="32" customHeight="1">
+      <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="2:6" ht="32" customHeight="1">
+    </row>
+    <row r="30" spans="1:5" ht="32" customHeight="1">
+      <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="2:6" ht="32" customHeight="1">
+    </row>
+    <row r="31" spans="1:5" ht="32" customHeight="1">
+      <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="2:6" ht="32" customHeight="1">
+    </row>
+    <row r="32" spans="1:5" ht="32" customHeight="1">
+      <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="2:6" ht="32" customHeight="1">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="2:6" ht="50" customHeight="1"/>
+    </row>
+    <row r="33" ht="32" customHeight="1"/>
+    <row r="34" ht="50" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" tooltip="https://book.douban.com/subject/36104107/" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="F5" r:id="rId2" tooltip="https://book.douban.com/subject/25737043/" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="F3" r:id="rId3" tooltip="https://book.douban.com/subject/4913064/" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="E4" r:id="rId1" tooltip="https://book.douban.com/subject/36104107/" xr:uid="{02E66A5E-6BED-3C40-917B-F8382AF3CD7E}"/>
+    <hyperlink ref="E5" r:id="rId2" tooltip="https://book.douban.com/subject/25737043/" xr:uid="{8687C40C-B7F4-8445-8080-4950A5F10A5D}"/>
+    <hyperlink ref="E3" r:id="rId3" tooltip="https://book.douban.com/subject/4913064/" xr:uid="{BF2A95F2-4042-7D49-8078-8A167D6755DC}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1162,7 +1218,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Top Grossing Movies of the Deca" sheetId="1" r:id="rId1"/>
@@ -1173,8 +1173,8 @@
   <sheetPr/>
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="15"/>
@@ -1546,8 +1546,8 @@
   <sheetPr/>
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="15"/>

--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10107"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limingcan/project/ejc-cli/template/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E575BBF4-0050-6846-9135-EB6DBCCE7C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Top Grossing Movies of the Deca" sheetId="1" r:id="rId1"/>
@@ -171,8 +165,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -183,14 +183,13 @@
     <font>
       <sz val="12"/>
       <name val="Noto Sans CJK"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -198,7 +197,6 @@
       <sz val="12"/>
       <color rgb="FF9C5700"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -206,19 +204,162 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,8 +378,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -276,57 +597,321 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="13" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="注释" xfId="1" builtinId="10"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF4CF2D1"/>
-      <color rgb="FF9AF1EB"/>
-      <color rgb="FFFFFFFF"/>
-      <color rgb="FF6C9A41"/>
-      <color rgb="FF367A7B"/>
-      <color rgb="FF4DA68F"/>
+      <color rgb="004CF2D1"/>
+      <color rgb="009AF1EB"/>
+      <color rgb="00FFFFFF"/>
+      <color rgb="006C9A41"/>
+      <color rgb="00367A7B"/>
+      <color rgb="004DA68F"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -584,769 +1169,767 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="9.16666666666667" style="1"/>
     <col min="2" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.8333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6666666666667" style="1" customWidth="1"/>
     <col min="7" max="7" width="36.5" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1640625" style="1"/>
+    <col min="8" max="16384" width="9.16666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="79" customHeight="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="79" customHeight="1" spans="1:7">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:11" ht="40" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" ht="40" customHeight="1" spans="1:7">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:11" ht="37" customHeight="1">
-      <c r="A3" s="3">
+    </row>
+    <row r="3" ht="37" customHeight="1" spans="1:7">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>2006</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="4">
         <v>109</v>
       </c>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" ht="32" customHeight="1">
-      <c r="A4" s="3">
+    </row>
+    <row r="4" ht="32" customHeight="1" spans="1:7">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>2009</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="4">
         <v>2784</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="32" customHeight="1">
-      <c r="A5" s="3">
+    <row r="5" ht="32" customHeight="1" spans="1:7">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>2016</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="4">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="32" customHeight="1">
-      <c r="A6" s="3">
+    <row r="6" ht="32" customHeight="1" spans="1:7">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>2019</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="4">
         <v>1074</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="32" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" ht="32" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" ht="32" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" ht="32" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" ht="32" customHeight="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" ht="32" customHeight="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" ht="32" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" ht="32" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" ht="32" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" ht="32" customHeight="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" ht="32" customHeight="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" ht="32" customHeight="1">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" ht="32" customHeight="1">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" ht="32" customHeight="1">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="32" customHeight="1">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="32" customHeight="1">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" ht="32" customHeight="1">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" ht="32" customHeight="1">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" ht="32" customHeight="1">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" ht="32" customHeight="1">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" ht="32" customHeight="1">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" ht="32" customHeight="1">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" ht="32" customHeight="1">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" ht="32" customHeight="1">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" ht="50" customHeight="1"/>
+    <row r="7" ht="32" customHeight="1" spans="1:7">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" ht="32" customHeight="1" spans="1:7">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" ht="32" customHeight="1" spans="1:7">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" ht="32" customHeight="1" spans="1:7">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" ht="32" customHeight="1" spans="1:7">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" ht="32" customHeight="1" spans="1:7">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" ht="32" customHeight="1" spans="1:7">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" ht="32" customHeight="1" spans="1:7">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" ht="32" customHeight="1" spans="1:7">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" ht="32" customHeight="1" spans="1:7">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" ht="32" customHeight="1" spans="1:7">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" ht="32" customHeight="1" spans="1:7">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" ht="32" customHeight="1" spans="1:7">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" ht="32" customHeight="1" spans="1:7">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" ht="32" customHeight="1" spans="1:7">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" ht="32" customHeight="1" spans="1:7">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" ht="32" customHeight="1" spans="1:7">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" ht="32" customHeight="1" spans="1:7">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" ht="32" customHeight="1" spans="1:7">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" ht="32" customHeight="1" spans="1:7">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" ht="32" customHeight="1" spans="1:7">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" ht="32" customHeight="1" spans="1:7">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" ht="32" customHeight="1" spans="1:7">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" ht="32" customHeight="1" spans="1:7">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" ht="50" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="K2:K3"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="9.16666666666667" style="1"/>
     <col min="2" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1640625" style="1"/>
+    <col min="4" max="4" width="20.8333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.3333333333333" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.16666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="79" customHeight="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="79" customHeight="1" spans="1:7">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:11" ht="32" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" ht="32" customHeight="1" spans="1:7">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:11" ht="37" customHeight="1">
-      <c r="A3" s="3">
+    </row>
+    <row r="3" ht="37" customHeight="1" spans="1:7">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>42741</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" ht="32" customHeight="1">
-      <c r="A4" s="3">
+    </row>
+    <row r="4" ht="32" customHeight="1" spans="1:7">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>30650</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="32" customHeight="1">
-      <c r="A5" s="3">
+    <row r="5" ht="32" customHeight="1" spans="1:7">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>27698</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="32" customHeight="1">
-      <c r="A6" s="3">
+    <row r="6" ht="32" customHeight="1" spans="1:7">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>42748</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="32" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" ht="32" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" ht="32" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" ht="32" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" ht="32" customHeight="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" ht="32" customHeight="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" ht="32" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" ht="32" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" ht="32" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" ht="32" customHeight="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" ht="32" customHeight="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" ht="32" customHeight="1">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" ht="32" customHeight="1">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" ht="32" customHeight="1">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="32" customHeight="1">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="32" customHeight="1">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" ht="32" customHeight="1">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" ht="32" customHeight="1">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" ht="32" customHeight="1">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" ht="32" customHeight="1">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" ht="32" customHeight="1">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" ht="32" customHeight="1">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" ht="32" customHeight="1">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" ht="32" customHeight="1">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" ht="50" customHeight="1"/>
+    <row r="7" ht="32" customHeight="1" spans="1:7">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" ht="32" customHeight="1" spans="1:7">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" ht="32" customHeight="1" spans="1:7">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" ht="32" customHeight="1" spans="1:7">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" ht="32" customHeight="1" spans="1:7">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" ht="32" customHeight="1" spans="1:7">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" ht="32" customHeight="1" spans="1:7">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" ht="32" customHeight="1" spans="1:7">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" ht="32" customHeight="1" spans="1:7">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" ht="32" customHeight="1" spans="1:7">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" ht="32" customHeight="1" spans="1:7">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" ht="32" customHeight="1" spans="1:7">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" ht="32" customHeight="1" spans="1:7">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" ht="32" customHeight="1" spans="1:7">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" ht="32" customHeight="1" spans="1:7">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" ht="32" customHeight="1" spans="1:7">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" ht="32" customHeight="1" spans="1:7">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" ht="32" customHeight="1" spans="1:7">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" ht="32" customHeight="1" spans="1:7">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" ht="32" customHeight="1" spans="1:7">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" ht="32" customHeight="1" spans="1:7">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" ht="32" customHeight="1" spans="1:7">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" ht="32" customHeight="1" spans="1:7">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" ht="32" customHeight="1" spans="1:7">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" ht="50" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="K2:K3"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>